--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buile\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NhatTruong\MHUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7C69E9-2EC0-4195-A3BA-A237F4FB0399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B62C63-8537-431A-B3CD-6C8DB8E5EF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F7B5E3C1-C254-4261-BEDA-85931B1B1630}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Manual notebook</t>
   </si>
   <si>
-    <t>14/4/2021</t>
-  </si>
-  <si>
     <t>4.Relase</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Dậu, Trường</t>
+  </si>
+  <si>
+    <t>14/3/2021</t>
   </si>
 </sst>
 </file>
@@ -201,18 +201,18 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,267 +544,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NhatTruong\MHUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B62C63-8537-431A-B3CD-6C8DB8E5EF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D54F4-1F66-46B0-95A7-429B2125ECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F7B5E3C1-C254-4261-BEDA-85931B1B1630}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -530,7 +530,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +650,15 @@
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">

--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NhatTruong\MHUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235D54F4-1F66-46B0-95A7-429B2125ECC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC66228-7E5E-4A9E-9D6F-8C5263BC4D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F7B5E3C1-C254-4261-BEDA-85931B1B1630}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>14/3/2021</t>
+  </si>
+  <si>
+    <t>Dậu, Trí</t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEDF36F-FBE7-44AC-9A55-4C0942C506C9}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
@@ -714,7 +717,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>

--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NhatTruong\MHUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buile\OneDrive\Desktop\MHUD-developer\MHUD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC66228-7E5E-4A9E-9D6F-8C5263BC4D8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14502C0A-9216-41A1-AFBB-E28689FB78DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F7B5E3C1-C254-4261-BEDA-85931B1B1630}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Dậu, Trí</t>
+  </si>
+  <si>
+    <t>17/3/2021</t>
+  </si>
+  <si>
+    <t>16/3/2021</t>
+  </si>
+  <si>
+    <t>Trí Encryption, Dậu Decryption</t>
   </si>
 </sst>
 </file>
@@ -533,7 +542,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +553,7 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
@@ -674,9 +684,15 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,9 +705,15 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -704,9 +726,15 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -719,10 +747,14 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">

--- a/MHUD.xlsx
+++ b/MHUD.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buile\OneDrive\Desktop\MHUD-developer\MHUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\MHUD-developer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14502C0A-9216-41A1-AFBB-E28689FB78DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F7B5E3C1-C254-4261-BEDA-85931B1B1630}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Mã Hóa Ứng Dụng" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Status Tracker</t>
   </si>
@@ -135,12 +134,15 @@
   </si>
   <si>
     <t>Trí Encryption, Dậu Decryption</t>
+  </si>
+  <si>
+    <t>Base on 2. In Process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -225,9 +227,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -538,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DEDF36F-FBE7-44AC-9A55-4C0942C506C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D18"/>
+      <selection activeCell="A13" sqref="A13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,8 +752,8 @@
       <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
+      <c r="D12" s="10">
+        <v>44637</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -840,7 +845,9 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
